--- a/files/RegistrationForm.xlsx
+++ b/files/RegistrationForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuzhang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F46FB73-959A-CD43-B089-E26AC4A10B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3658E264-0F2C-8849-8052-67427B323097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{D1C40E42-FEEF-7140-9744-89E9E70E00D6}"/>
   </bookViews>
@@ -88,15 +88,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Affiliation should include department, university /institute/company name in full, country.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Please use lowercase letters and numbers in your team name. Do not include any spacing or special characters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affiliation should include department, university /institute/company name in full, city, country.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,11 +171,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -587,20 +587,20 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="B15" s="3" t="s">
-        <v>15</v>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>

--- a/files/RegistrationForm.xlsx
+++ b/files/RegistrationForm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuzhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuzhang/Desktop/CMRxRecon-MICCAI/20230506-9/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3658E264-0F2C-8849-8052-67427B323097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AA5595-2C2C-0E47-B68F-6E4E4A41B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{D1C40E42-FEEF-7140-9744-89E9E70E00D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Team Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,7 +96,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Affiliation should include department, university /institute/company name in full, city, country.</t>
+    <t>City, Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affiliation should include department, university /institute/company name in full</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD52A98-31CE-B441-A318-18665F99C971}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -505,23 +509,33 @@
     <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="11" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="17" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="1"/>
-    <col min="19" max="19" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="1"/>
+    <col min="20" max="20" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="1"/>
+    <col min="24" max="24" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,34 +549,34 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>2</v>
@@ -570,35 +584,54 @@
       <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:27">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:27">
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
@@ -606,11 +639,12 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/RegistrationForm.xlsx
+++ b/files/RegistrationForm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuzhang/Desktop/CMRxRecon-MICCAI/20230506-9/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyuzhang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AA5595-2C2C-0E47-B68F-6E4E4A41B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F46FB73-959A-CD43-B089-E26AC4A10B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{D1C40E42-FEEF-7140-9744-89E9E70E00D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Team Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,19 +88,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Affiliation should include department, university /institute/company name in full, country.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Note:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Please use lowercase letters and numbers in your team name. Do not include any spacing or special characters.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>City, Country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Affiliation should include department, university /institute/company name in full</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,11 +171,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -498,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD52A98-31CE-B441-A318-18665F99C971}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -509,33 +505,23 @@
     <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="1"/>
-    <col min="24" max="24" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.1640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="11" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="17" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,34 +535,34 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>2</v>
@@ -584,67 +570,47 @@
       <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="B15" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
